--- a/NformTester/NformTester/keywordscripts/TST498_CheckConfigureDisplayTrendLineInPlotting.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST498_CheckConfigureDisplayTrendLineInPlotting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-795" yWindow="-120" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="-795" yWindow="-120" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -3627,9 +3627,6 @@
     <t>.NET Framework</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -3800,6 +3797,10 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.146.88.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4355,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4427,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4446,13 +4447,13 @@
         <v>767</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -4462,13 +4463,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>795</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4487,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4518,7 +4519,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4543,7 +4544,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4568,7 +4569,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="5"/>
@@ -4591,7 +4592,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>577</v>
@@ -4601,22 +4602,22 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>788</v>
+        <v>840</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>800</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>801</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>780</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2"/>
@@ -4632,7 +4633,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="5"/>
@@ -4653,7 +4654,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>19</v>
@@ -4682,7 +4683,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>19</v>
@@ -4711,7 +4712,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>577</v>
@@ -4723,7 +4724,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -4742,7 +4743,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>577</v>
@@ -4771,7 +4772,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>519</v>
@@ -4800,7 +4801,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>575</v>
@@ -4829,7 +4830,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>575</v>
@@ -4858,7 +4859,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>519</v>
@@ -4887,7 +4888,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>577</v>
@@ -4918,7 +4919,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>755</v>
@@ -4945,7 +4946,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -4968,7 +4969,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>19</v>
@@ -4993,7 +4994,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>19</v>
@@ -5008,7 +5009,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -5022,7 +5023,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>19</v>
@@ -5047,7 +5048,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>19</v>
@@ -5072,7 +5073,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>575</v>
@@ -5101,7 +5102,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="5"/>
@@ -5120,7 +5121,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>575</v>
@@ -5132,7 +5133,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="5"/>
@@ -5147,7 +5148,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>575</v>
@@ -5159,7 +5160,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="5"/>
@@ -5174,7 +5175,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>575</v>
@@ -5199,7 +5200,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="5"/>
@@ -5218,7 +5219,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="5"/>
@@ -5237,7 +5238,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>19</v>
@@ -5262,7 +5263,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>19</v>
@@ -5274,7 +5275,7 @@
         <v>7</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I33" s="11" t="b">
         <v>1</v>
@@ -5291,7 +5292,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>19</v>
@@ -5303,7 +5304,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5318,7 +5319,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>19</v>
@@ -5330,7 +5331,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -5345,7 +5346,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>19</v>
@@ -5357,7 +5358,7 @@
         <v>13</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="5"/>
@@ -5372,7 +5373,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>19</v>
@@ -5397,7 +5398,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="5"/>
@@ -5416,7 +5417,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>19</v>
@@ -5428,10 +5429,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J39" s="5">
         <v>24</v>
@@ -5447,7 +5448,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>19</v>
@@ -5459,13 +5460,13 @@
         <v>7</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -5478,7 +5479,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="5"/>
@@ -5497,7 +5498,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>19</v>
@@ -5522,7 +5523,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>19</v>
@@ -5534,7 +5535,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I43" s="11" t="b">
         <v>1</v>
@@ -5551,7 +5552,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>19</v>
@@ -5563,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="5"/>
@@ -5578,7 +5579,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>19</v>
@@ -5590,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="5"/>
@@ -5605,7 +5606,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>19</v>
@@ -5617,7 +5618,7 @@
         <v>13</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="5"/>
@@ -5632,7 +5633,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>19</v>
@@ -5657,7 +5658,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="5"/>
@@ -5676,7 +5677,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>19</v>
@@ -5688,10 +5689,10 @@
         <v>7</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J49" s="5">
         <v>2</v>
@@ -5707,7 +5708,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>19</v>
@@ -5719,13 +5720,13 @@
         <v>7</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -5738,7 +5739,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="5"/>
@@ -5757,7 +5758,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="5"/>
@@ -5776,7 +5777,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>755</v>
@@ -5799,7 +5800,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>19</v>
@@ -5824,7 +5825,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>19</v>
@@ -5849,10 +5850,10 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>802</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>803</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>578</v>
@@ -5861,7 +5862,7 @@
         <v>3</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -5876,10 +5877,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>802</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>803</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>186</v>
@@ -5901,7 +5902,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>584</v>
@@ -5926,10 +5927,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>802</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>803</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>96</v>
@@ -6192,7 +6193,7 @@
         <v>194</v>
       </c>
       <c r="AA1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AB1" t="s">
         <v>320</v>
@@ -6422,7 +6423,7 @@
         <v>193</v>
       </c>
       <c r="AA2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AB2" t="s">
         <v>17</v>
@@ -6616,7 +6617,7 @@
         <v>313</v>
       </c>
       <c r="AA3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AB3" t="s">
         <v>119</v>
@@ -7364,7 +7365,7 @@
         <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -8084,7 +8085,7 @@
         <v>568</v>
       </c>
       <c r="AT14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="BA14" t="s">
         <v>608</v>
@@ -8152,7 +8153,7 @@
         <v>569</v>
       </c>
       <c r="AT15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="BA15" t="s">
         <v>609</v>
@@ -9589,7 +9590,7 @@
     </row>
     <row r="81" spans="1:40">
       <c r="A81" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E81" t="s">
         <v>102</v>
@@ -13627,10 +13628,10 @@
         <v>5</v>
       </c>
       <c r="IJ2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="IK2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="IL2" t="s">
         <v>5</v>
@@ -13909,7 +13910,7 @@
         <v>5</v>
       </c>
       <c r="LZ2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="MA2" t="s">
         <v>5</v>
@@ -14920,7 +14921,7 @@
         <v>3</v>
       </c>
       <c r="YY2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="YZ2" t="s">
         <v>56</v>
@@ -15031,13 +15032,13 @@
         <v>5</v>
       </c>
       <c r="AAJ2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AAK2" t="s">
         <v>56</v>
       </c>
       <c r="AAL2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AAM2" t="s">
         <v>5</v>
@@ -15193,13 +15194,13 @@
         <v>5</v>
       </c>
       <c r="ACL2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="ACM2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="ACN2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="ACO2" t="s">
         <v>5</v>
@@ -15271,7 +15272,7 @@
         <v>56</v>
       </c>
       <c r="ADL2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="ADM2" t="s">
         <v>3</v>
@@ -15322,13 +15323,13 @@
         <v>5</v>
       </c>
       <c r="AEC2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AED2" t="s">
         <v>5</v>
       </c>
       <c r="AEE2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AEF2" t="s">
         <v>3</v>
@@ -16200,7 +16201,7 @@
         <v>5</v>
       </c>
       <c r="CI3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -16671,10 +16672,10 @@
         <v>6</v>
       </c>
       <c r="IJ3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="IK3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="IL3" t="s">
         <v>6</v>
@@ -16953,7 +16954,7 @@
         <v>6</v>
       </c>
       <c r="LZ3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="MA3" t="s">
         <v>6</v>
@@ -17349,7 +17350,7 @@
         <v>4</v>
       </c>
       <c r="RB3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="RC3" t="s">
         <v>4</v>
@@ -17964,7 +17965,7 @@
         <v>4</v>
       </c>
       <c r="YY3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="YZ3" t="s">
         <v>5</v>
@@ -18075,13 +18076,13 @@
         <v>6</v>
       </c>
       <c r="AAJ3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AAK3" t="s">
         <v>5</v>
       </c>
       <c r="AAL3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AAM3" t="s">
         <v>6</v>
@@ -18237,13 +18238,13 @@
         <v>6</v>
       </c>
       <c r="ACL3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="ACM3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="ACN3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="ACO3" t="s">
         <v>6</v>
@@ -18315,7 +18316,7 @@
         <v>5</v>
       </c>
       <c r="ADL3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="ADM3" t="s">
         <v>4</v>
@@ -18324,55 +18325,55 @@
         <v>4</v>
       </c>
       <c r="ADO3" t="s">
+        <v>831</v>
+      </c>
+      <c r="ADP3" t="s">
+        <v>5</v>
+      </c>
+      <c r="ADQ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADR3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADS3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADT3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADU3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADV3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADW3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADX3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADY3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADZ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AEA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AEB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AEC3" t="s">
         <v>832</v>
       </c>
-      <c r="ADP3" t="s">
-        <v>5</v>
-      </c>
-      <c r="ADQ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADR3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADS3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADT3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADU3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADV3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADW3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADX3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADY3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADZ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AEA3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AEB3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AEC3" t="s">
-        <v>833</v>
-      </c>
       <c r="AED3" t="s">
         <v>6</v>
       </c>
       <c r="AEE3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AEF3" t="s">
         <v>4</v>
@@ -18435,7 +18436,7 @@
         <v>4</v>
       </c>
       <c r="AEZ3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AFA3" t="s">
         <v>6</v>
@@ -18447,7 +18448,7 @@
         <v>6</v>
       </c>
       <c r="AFD3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AFE3" t="s">
         <v>6</v>
@@ -26306,7 +26307,7 @@
         <v>8</v>
       </c>
       <c r="AS7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AT7" t="s">
         <v>8</v>
@@ -27390,7 +27391,7 @@
     </row>
     <row r="9" spans="1:1014">
       <c r="CI9" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="IJ9" t="s">
         <v>8</v>
@@ -27447,17 +27448,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST498_CheckConfigureDisplayTrendLineInPlotting.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST498_CheckConfigureDisplayTrendLineInPlotting.xlsx
@@ -3664,9 +3664,6 @@
     <t>;Clear operation.</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3799,8 +3796,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
   </si>
 </sst>
 </file>
@@ -4356,8 +4355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4447,7 +4446,7 @@
         <v>767</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4488,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4519,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4544,7 +4543,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4569,7 +4568,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="5"/>
@@ -4605,13 +4604,13 @@
         <v>796</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>799</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>800</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>780</v>
@@ -4633,7 +4632,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="5"/>
@@ -4724,7 +4723,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -4946,7 +4945,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -5009,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -5102,7 +5101,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="5"/>
@@ -5133,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="5"/>
@@ -5160,7 +5159,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="5"/>
@@ -5200,7 +5199,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="5"/>
@@ -5219,7 +5218,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="5"/>
@@ -5275,7 +5274,7 @@
         <v>7</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I33" s="11" t="b">
         <v>1</v>
@@ -5304,7 +5303,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5331,7 +5330,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -5358,7 +5357,7 @@
         <v>13</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="5"/>
@@ -5398,7 +5397,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="5"/>
@@ -5429,10 +5428,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J39" s="5">
         <v>24</v>
@@ -5460,13 +5459,13 @@
         <v>7</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -5479,7 +5478,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="5"/>
@@ -5535,7 +5534,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I43" s="11" t="b">
         <v>1</v>
@@ -5564,7 +5563,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="5"/>
@@ -5591,7 +5590,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="5"/>
@@ -5618,7 +5617,7 @@
         <v>13</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="5"/>
@@ -5658,7 +5657,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="5"/>
@@ -5689,10 +5688,10 @@
         <v>7</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J49" s="5">
         <v>2</v>
@@ -5720,13 +5719,13 @@
         <v>7</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -5739,7 +5738,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="5"/>
@@ -5850,10 +5849,10 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>578</v>
@@ -5862,7 +5861,7 @@
         <v>3</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -5877,10 +5876,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>186</v>
@@ -5902,7 +5901,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>584</v>
@@ -5927,10 +5926,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>96</v>
@@ -6193,7 +6192,7 @@
         <v>194</v>
       </c>
       <c r="AA1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AB1" t="s">
         <v>320</v>
@@ -6423,7 +6422,7 @@
         <v>193</v>
       </c>
       <c r="AA2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AB2" t="s">
         <v>17</v>
@@ -6617,7 +6616,7 @@
         <v>313</v>
       </c>
       <c r="AA3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AB3" t="s">
         <v>119</v>
@@ -7365,7 +7364,7 @@
         <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -8085,7 +8084,7 @@
         <v>568</v>
       </c>
       <c r="AT14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="BA14" t="s">
         <v>608</v>
@@ -8153,7 +8152,7 @@
         <v>569</v>
       </c>
       <c r="AT15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="BA15" t="s">
         <v>609</v>
@@ -9590,7 +9589,7 @@
     </row>
     <row r="81" spans="1:40">
       <c r="A81" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E81" t="s">
         <v>102</v>
@@ -13628,10 +13627,10 @@
         <v>5</v>
       </c>
       <c r="IJ2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="IK2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="IL2" t="s">
         <v>5</v>
@@ -13910,7 +13909,7 @@
         <v>5</v>
       </c>
       <c r="LZ2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="MA2" t="s">
         <v>5</v>
@@ -14921,7 +14920,7 @@
         <v>3</v>
       </c>
       <c r="YY2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="YZ2" t="s">
         <v>56</v>
@@ -15032,13 +15031,13 @@
         <v>5</v>
       </c>
       <c r="AAJ2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AAK2" t="s">
         <v>56</v>
       </c>
       <c r="AAL2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AAM2" t="s">
         <v>5</v>
@@ -15194,13 +15193,13 @@
         <v>5</v>
       </c>
       <c r="ACL2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="ACM2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="ACN2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="ACO2" t="s">
         <v>5</v>
@@ -15272,7 +15271,7 @@
         <v>56</v>
       </c>
       <c r="ADL2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="ADM2" t="s">
         <v>3</v>
@@ -15323,13 +15322,13 @@
         <v>5</v>
       </c>
       <c r="AEC2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AED2" t="s">
         <v>5</v>
       </c>
       <c r="AEE2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AEF2" t="s">
         <v>3</v>
@@ -16201,7 +16200,7 @@
         <v>5</v>
       </c>
       <c r="CI3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -16672,10 +16671,10 @@
         <v>6</v>
       </c>
       <c r="IJ3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="IK3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="IL3" t="s">
         <v>6</v>
@@ -16954,7 +16953,7 @@
         <v>6</v>
       </c>
       <c r="LZ3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="MA3" t="s">
         <v>6</v>
@@ -17350,7 +17349,7 @@
         <v>4</v>
       </c>
       <c r="RB3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="RC3" t="s">
         <v>4</v>
@@ -17965,7 +17964,7 @@
         <v>4</v>
       </c>
       <c r="YY3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="YZ3" t="s">
         <v>5</v>
@@ -18076,13 +18075,13 @@
         <v>6</v>
       </c>
       <c r="AAJ3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AAK3" t="s">
         <v>5</v>
       </c>
       <c r="AAL3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AAM3" t="s">
         <v>6</v>
@@ -18238,13 +18237,13 @@
         <v>6</v>
       </c>
       <c r="ACL3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="ACM3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="ACN3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="ACO3" t="s">
         <v>6</v>
@@ -18316,7 +18315,7 @@
         <v>5</v>
       </c>
       <c r="ADL3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="ADM3" t="s">
         <v>4</v>
@@ -18325,55 +18324,55 @@
         <v>4</v>
       </c>
       <c r="ADO3" t="s">
+        <v>830</v>
+      </c>
+      <c r="ADP3" t="s">
+        <v>5</v>
+      </c>
+      <c r="ADQ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADR3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADS3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADT3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADU3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADV3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADW3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADX3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADY3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ADZ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AEA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AEB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AEC3" t="s">
         <v>831</v>
       </c>
-      <c r="ADP3" t="s">
-        <v>5</v>
-      </c>
-      <c r="ADQ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADR3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADS3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADT3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADU3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADV3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADW3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADX3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADY3" t="s">
-        <v>6</v>
-      </c>
-      <c r="ADZ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AEA3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AEB3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AEC3" t="s">
-        <v>832</v>
-      </c>
       <c r="AED3" t="s">
         <v>6</v>
       </c>
       <c r="AEE3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AEF3" t="s">
         <v>4</v>
@@ -18436,7 +18435,7 @@
         <v>4</v>
       </c>
       <c r="AEZ3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AFA3" t="s">
         <v>6</v>
@@ -18448,7 +18447,7 @@
         <v>6</v>
       </c>
       <c r="AFD3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AFE3" t="s">
         <v>6</v>
@@ -26307,7 +26306,7 @@
         <v>8</v>
       </c>
       <c r="AS7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AT7" t="s">
         <v>8</v>
@@ -27391,7 +27390,7 @@
     </row>
     <row r="9" spans="1:1014">
       <c r="CI9" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="IJ9" t="s">
         <v>8</v>
@@ -27448,17 +27447,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST498_CheckConfigureDisplayTrendLineInPlotting.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST498_CheckConfigureDisplayTrendLineInPlotting.xlsx
@@ -1244,7 +1244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7208" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7218" uniqueCount="843">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3800,6 +3800,14 @@
   </si>
   <si>
     <t>$GXT_0$</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4034,7 +4042,91 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4353,10 +4445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4562,7 +4654,7 @@
         <v>773</v>
       </c>
       <c r="B7" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -4591,37 +4683,27 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>577</v>
+        <v>789</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>774</v>
       </c>
@@ -4631,19 +4713,25 @@
       <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
@@ -4653,24 +4741,22 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>789</v>
+        <v>841</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="7"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
@@ -4682,27 +4768,37 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
+        <v>795</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>577</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+        <v>583</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>797</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="3" t="s">
         <v>777</v>
       </c>
@@ -4710,22 +4806,14 @@
       <c r="C12" s="5">
         <v>11</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="I12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -4744,17 +4832,17 @@
       <c r="D13" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>577</v>
+      <c r="E13" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -4773,11 +4861,11 @@
       <c r="D14" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>519</v>
+      <c r="E14" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>526</v>
+        <v>75</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>2</v>
@@ -4802,17 +4890,19 @@
       <c r="D15" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>575</v>
+      <c r="E15" s="5" t="s">
+        <v>577</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>377</v>
+        <v>578</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -4831,17 +4921,17 @@
       <c r="D16" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>575</v>
+      <c r="E16" s="5" t="s">
+        <v>577</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -4864,7 +4954,7 @@
         <v>519</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>17</v>
+        <v>526</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>2</v>
@@ -4889,11 +4979,11 @@
       <c r="D18" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>577</v>
+      <c r="E18" s="11" t="s">
+        <v>575</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>96</v>
+        <v>377</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>2</v>
@@ -4918,17 +5008,19 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+        <v>789</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -4936,7 +5028,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="15">
+    <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
         <v>786</v>
       </c>
@@ -4944,13 +5036,19 @@
       <c r="C20" s="5">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="11"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -4970,11 +5068,11 @@
       <c r="D21" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>19</v>
+      <c r="E21" s="5" t="s">
+        <v>577</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>2</v>
@@ -4993,23 +5091,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="11">
-        <v>2</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>840</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -5017,23 +5109,17 @@
       <c r="N22" s="7"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="15">
       <c r="C23" s="5">
         <v>22</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="11"/>
+      <c r="D23" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -5053,13 +5139,13 @@
         <v>19</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -5075,19 +5161,19 @@
         <v>789</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>575</v>
+        <v>19</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>576</v>
+        <v>98</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="11">
         <v>2</v>
       </c>
-      <c r="I25" s="11">
-        <v>1</v>
+      <c r="I25" s="5" t="s">
+        <v>840</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -5096,18 +5182,24 @@
       <c r="N25" s="7"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="15">
+    <row r="26" spans="1:15">
       <c r="C26" s="5">
         <v>25</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -5123,18 +5215,16 @@
         <v>789</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>575</v>
+        <v>19</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>332</v>
+        <v>110</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="I27" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -5153,15 +5243,17 @@
         <v>575</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>332</v>
+        <v>576</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="I28" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="H28" s="11">
+        <v>2</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -5169,22 +5261,16 @@
       <c r="N28" s="7"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="15">
       <c r="C29" s="5">
         <v>28</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D29" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="5"/>
@@ -5194,17 +5280,25 @@
       <c r="N29" s="7"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="15">
+    <row r="30" spans="1:15">
       <c r="C30" s="5">
         <v>29</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="11"/>
+      <c r="D30" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>806</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -5213,17 +5307,25 @@
       <c r="N30" s="7"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="15">
+    <row r="31" spans="1:15">
       <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="11"/>
+      <c r="D31" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>812</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -5240,13 +5342,13 @@
         <v>789</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>19</v>
+        <v>575</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -5257,28 +5359,18 @@
       <c r="N32" s="7"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" ht="15">
       <c r="C33" s="5">
         <v>32</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="I33" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="D33" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -5286,25 +5378,17 @@
       <c r="N33" s="7"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" ht="15">
       <c r="C34" s="5">
         <v>33</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>806</v>
-      </c>
+      <c r="D34" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -5324,14 +5408,12 @@
         <v>19</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>815</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -5351,15 +5433,17 @@
         <v>19</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="I36" s="11"/>
+        <v>808</v>
+      </c>
+      <c r="I36" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -5378,12 +5462,14 @@
         <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>806</v>
+      </c>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -5392,17 +5478,25 @@
       <c r="N37" s="7"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="3:15" ht="15">
+    <row r="38" spans="3:15">
       <c r="C38" s="5">
         <v>37</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="11"/>
+      <c r="D38" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>815</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5422,20 +5516,16 @@
         <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="J39" s="5">
-        <v>24</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -5453,20 +5543,14 @@
         <v>19</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>816</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -5478,7 +5562,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="5"/>
@@ -5503,14 +5587,20 @@
         <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="J42" s="5">
+        <v>24</v>
+      </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -5528,43 +5618,37 @@
         <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="I43" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>809</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>816</v>
+      </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="7"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" ht="15">
       <c r="C44" s="5">
         <v>43</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>806</v>
-      </c>
+      <c r="D44" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5584,14 +5668,12 @@
         <v>19</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>820</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -5611,15 +5693,17 @@
         <v>19</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="I46" s="11"/>
+        <v>808</v>
+      </c>
+      <c r="I46" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -5638,12 +5722,14 @@
         <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>806</v>
+      </c>
       <c r="I47" s="11"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -5652,17 +5738,25 @@
       <c r="N47" s="7"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="3:15" ht="15">
+    <row r="48" spans="3:15">
       <c r="C48" s="5">
         <v>47</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="11"/>
+      <c r="D48" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>820</v>
+      </c>
       <c r="I48" s="11"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -5682,20 +5776,16 @@
         <v>19</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="J49" s="5">
-        <v>2</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -5713,20 +5803,14 @@
         <v>19</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>816</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -5738,7 +5822,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="5"/>
@@ -5752,19 +5836,31 @@
       <c r="N51" s="7"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="3:15" ht="15">
+    <row r="52" spans="3:15">
       <c r="C52" s="5">
         <v>51</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="D52" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="J52" s="5">
+        <v>2</v>
+      </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -5776,40 +5872,42 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="F53" s="5">
-        <v>2</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>816</v>
+      </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="7"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="3:15">
+    <row r="54" spans="3:15" ht="15">
       <c r="C54" s="5">
         <v>53</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D54" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="5"/>
@@ -5819,24 +5917,18 @@
       <c r="N54" s="7"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="3:15">
+    <row r="55" spans="3:15" ht="15">
       <c r="C55" s="5">
         <v>54</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D55" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -5849,51 +5941,47 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>802</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="17"/>
+      <c r="N56" s="7"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="3:15" ht="14.25">
+    <row r="57" spans="3:15">
       <c r="C57" s="5">
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>801</v>
+        <v>19</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="5"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="17"/>
+      <c r="N57" s="7"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="3:15">
@@ -5901,24 +5989,24 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>584</v>
+        <v>789</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="11"/>
-      <c r="I58" s="5"/>
+      <c r="I58" s="11"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="17"/>
+      <c r="N58" s="7"/>
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="3:15">
@@ -5932,58 +6020,90 @@
         <v>801</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>96</v>
+        <v>578</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="7"/>
+      <c r="N59" s="17"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="3:15">
-      <c r="C60" s="16"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+    <row r="60" spans="3:15" ht="14.25">
+      <c r="C60" s="5">
+        <v>59</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="18"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="7"/>
+      <c r="N60" s="17"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="3:15">
-      <c r="C61" s="16"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="C61" s="5">
+        <v>60</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H61" s="11"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="7"/>
+      <c r="N61" s="17"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="3:15">
-      <c r="C62" s="16"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="C62" s="5">
+        <v>61</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
@@ -5994,10 +6114,10 @@
     <row r="63" spans="3:15">
       <c r="C63" s="16"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -6010,8 +6130,8 @@
       <c r="C64" s="16"/>
       <c r="D64" s="8"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -6039,10 +6159,10 @@
     <row r="66" spans="3:15">
       <c r="C66" s="16"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="11"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="11"/>
+      <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -6055,9 +6175,9 @@
       <c r="C67" s="16"/>
       <c r="D67" s="8"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -6065,35 +6185,98 @@
       <c r="M67" s="5"/>
       <c r="N67" s="7"/>
     </row>
+    <row r="68" spans="3:15">
+      <c r="D68" s="8"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="7"/>
+    </row>
+    <row r="69" spans="3:15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="7"/>
+    </row>
+    <row r="70" spans="3:15">
+      <c r="D70" s="8"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N67">
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N70">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N56:N58">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N59:N61">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N10">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N10">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N10">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D63 D54:D55 D60 D19 D8 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65:D66 D57:D58 D63 D22 D11 D3:D4">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G57:G67 G2:G55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G60:G70 G2:G58">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F11:F70">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E70">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/keywordscripts/TST498_CheckConfigureDisplayTrendLineInPlotting.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST498_CheckConfigureDisplayTrendLineInPlotting.xlsx
@@ -1244,7 +1244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7218" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7221" uniqueCount="844">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3796,17 +3796,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3985,7 +3991,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4026,9 +4032,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4042,105 +4045,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4445,10 +4350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4461,6 +4366,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4629,7 +4535,7 @@
         <v>772</v>
       </c>
       <c r="B6" s="10">
-        <v>41079</v>
+        <v>41451</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4676,9 +4582,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>841</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4700,16 +4606,14 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>775</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4731,20 +4635,24 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="17"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>775</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F10" s="11">
         <v>2</v>
@@ -4756,14 +4664,12 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="17"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4781,10 +4687,10 @@
         <v>796</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>799</v>
@@ -4800,7 +4706,7 @@
     </row>
     <row r="12" spans="1:15" ht="15">
       <c r="A12" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4823,7 +4729,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4852,7 +4758,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4881,7 +4787,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4900,7 +4806,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -4912,7 +4818,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4940,10 +4846,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4971,7 +4877,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -4998,11 +4904,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5030,9 +4934,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>775</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5059,7 +4965,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5087,6 +4993,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5173,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -5441,10 +5351,12 @@
       <c r="H36" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="I36" s="11" t="b">
+      <c r="I36" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="J36" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -5701,10 +5613,12 @@
       <c r="H46" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="I46" s="11" t="b">
+      <c r="I46" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="J46" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -6033,7 +5947,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="17"/>
+      <c r="N59" s="16"/>
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="3:15" ht="14.25">
@@ -6052,13 +5966,13 @@
       <c r="G60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H60" s="18"/>
+      <c r="H60" s="17"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="17"/>
+      <c r="N60" s="16"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="3:15">
@@ -6083,7 +5997,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="17"/>
+      <c r="N61" s="16"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="3:15">
@@ -6111,172 +6025,27 @@
       <c r="N62" s="7"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="3:15">
-      <c r="C63" s="16"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="3:15">
-      <c r="C64" s="16"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="3:15">
-      <c r="C65" s="16"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="2"/>
-    </row>
-    <row r="66" spans="3:15">
-      <c r="C66" s="16"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="3:15">
-      <c r="C67" s="16"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="7"/>
-    </row>
-    <row r="68" spans="3:15">
-      <c r="D68" s="8"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="7"/>
-    </row>
-    <row r="69" spans="3:15">
-      <c r="D69" s="8"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="7"/>
-    </row>
-    <row r="70" spans="3:15">
-      <c r="D70" s="8"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N70">
-    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N62">
+    <cfRule type="cellIs" dxfId="1" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N59:N61">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N10">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N10">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N10">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65:D66 D57:D58 D63 D22 D11 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G58 G60:G62">
+      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F11:F62">
+      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D57:D58 D3:D4 D11 D22">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G60:G70 G2:G58">
-      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F11:F70">
-      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E62">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
@@ -27572,7 +27341,7 @@
       </c>
     </row>
     <row r="9" spans="1:1014">
-      <c r="CI9" s="19" t="s">
+      <c r="CI9" s="18" t="s">
         <v>832</v>
       </c>
       <c r="IJ9" t="s">
